--- a/Temu Test Cases with Report.xlsx
+++ b/Temu Test Cases with Report.xlsx
@@ -7,6 +7,7 @@
     <sheet state="visible" name="Bug Report" sheetId="2" r:id="rId5"/>
     <sheet state="visible" name="Test Metrics" sheetId="3" r:id="rId6"/>
     <sheet state="visible" name="Report" sheetId="4" r:id="rId7"/>
+    <sheet state="visible" name="MindMap" sheetId="5" r:id="rId8"/>
   </sheets>
   <definedNames>
     <definedName name="Remember_Me_checkbox_error">#REF!</definedName>
@@ -16,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="549" uniqueCount="351">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="550" uniqueCount="352">
   <si>
     <t>Product Name</t>
   </si>
@@ -228,7 +229,7 @@
     <t>1. Go to Temu website 2. Click the sign in button.</t>
   </si>
   <si>
-    <t>Check the continue button clickability without giving email</t>
+    <t>Check the error message without giving email</t>
   </si>
   <si>
     <t>system will show an error message like email field required</t>
@@ -735,7 +736,7 @@
     <t>1. Go to Temu website 2. Click the sign in button.3. Click the email field. 4. Enter email 5. Click Continue 6. Enter invalid password 7. Click sign in button</t>
   </si>
   <si>
-    <t>Verify login without password</t>
+    <t>Verify pop up message for login without password</t>
   </si>
   <si>
     <t>system will say password field required</t>
@@ -1241,6 +1242,9 @@
     <t>Risk-Based Testing includes testing of highly critical functionality, which has the highest impact on business and in which the probability of failure is very high.
 Testing an application as a whole for the modification in any module or functionality is termed as Regression Testing.</t>
   </si>
+  <si>
+    <t>MindMap</t>
+  </si>
 </sst>
 </file>
 
@@ -1251,7 +1255,7 @@
     <numFmt numFmtId="165" formatCode="dd/mm/yyyy"/>
     <numFmt numFmtId="166" formatCode="d/m/yy"/>
   </numFmts>
-  <fonts count="50">
+  <fonts count="51">
     <font>
       <sz val="10.0"/>
       <color rgb="FF000000"/>
@@ -1523,6 +1527,13 @@
       <sz val="14.0"/>
       <color theme="1"/>
       <name val="Calibri"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="14.0"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="33">
@@ -2252,7 +2263,7 @@
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
   </cellStyleXfs>
-  <cellXfs count="333">
+  <cellXfs count="334">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
@@ -3148,6 +3159,9 @@
     <xf borderId="18" fillId="0" fontId="46" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="center" shrinkToFit="0" vertical="center" wrapText="1"/>
     </xf>
+    <xf borderId="0" fillId="4" fontId="50" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment horizontal="center" readingOrder="0"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle xfId="0" name="Normal" builtinId="0"/>
@@ -3364,6 +3378,39 @@
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
+    <xdr:clientData fLocksWithSheet="0"/>
+  </xdr:oneCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing5.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer">
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>962025</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>161925</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="18259425" cy="19345275"/>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="0" name="image1.png" title="Image"/>
+        <xdr:cNvPicPr preferRelativeResize="0"/>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip cstate="print" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+    </xdr:pic>
     <xdr:clientData fLocksWithSheet="0"/>
   </xdr:oneCellAnchor>
 </xdr:wsDr>
@@ -20063,9 +20110,6 @@
     <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="L8">
       <formula1>"Option 1,Option 2"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" sqref="L19">
-      <formula1>"Passed,Failed,Not Executed,Out of Scope"</formula1>
-    </dataValidation>
     <dataValidation type="list" allowBlank="1" sqref="L9 L11:L18 L20:L22 L25:L45 L47:L48 L50:L81 L83:L93 L95:L98 L100:L104 L106:L107 L109:L115 L117:L207 K208:L213 L214 K215:L216 L217:L221 L224:L225 L228 L231:L242 L244:L252 K253:L253 L254:L256 L259:L260 L262 L264:L266 K267:L276 L277:L306 L319:L322 L342:L374">
       <formula1>"Passed,Failed,Not Executed,Out of Scope"</formula1>
     </dataValidation>
@@ -20073,6 +20117,9 @@
       <formula1>"Passed,Failed,Not Executed,Out of Scope,Improvement"</formula1>
     </dataValidation>
     <dataValidation type="list" allowBlank="1" sqref="L46">
+      <formula1>"Passed,Failed,Not Executed,Out of Scope"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" sqref="L19">
       <formula1>"Passed,Failed,Not Executed,Out of Scope"</formula1>
     </dataValidation>
   </dataValidations>
@@ -30123,4 +30170,27 @@
   <pageSetup paperSize="9" orientation="landscape"/>
   <drawing r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="0" summaryRight="0"/>
+  </sheetPr>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr customHeight="1" defaultColWidth="14.43" defaultRowHeight="15.0"/>
+  <sheetData>
+    <row r="2">
+      <c r="A2" s="333" t="s">
+        <v>351</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="A2:E2"/>
+  </mergeCells>
+  <drawing r:id="rId1"/>
+</worksheet>
 </file>